--- a/Code/Results/Cases/Case_1_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_191/res_bus/vm_pu.xlsx
@@ -417,159 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>1.098053353398734</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.097831772964044</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.108616644650451</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>1.10284711224856</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.100460518348221</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.111218439142626</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.104413281646285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.104405593382999</v>
+      </c>
+      <c r="E3">
+        <v>1.103670003516495</v>
+      </c>
+      <c r="F3">
+        <v>1.114788855661862</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.108843376481794</v>
+      </c>
+      <c r="L3">
+        <v>1.106108505368733</v>
+      </c>
+      <c r="M3">
+        <v>1.117201821855038</v>
+      </c>
+      <c r="N3">
+        <v>1.110418061262511</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>1.108443582862753</v>
+      </c>
+      <c r="E4">
+        <v>1.107378870635182</v>
+      </c>
+      <c r="F4">
+        <v>1.118711719516707</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1.112652785266917</v>
+      </c>
+      <c r="L4">
+        <v>1.109694787499427</v>
+      </c>
+      <c r="M4">
+        <v>1.121003064002394</v>
+      </c>
+      <c r="N4">
+        <v>1.114232879845054</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1.110124649157005</v>
+      </c>
+      <c r="E5">
+        <v>1.108922347814105</v>
+      </c>
+      <c r="F5">
+        <v>1.120344690364352</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1.114238141915783</v>
+      </c>
+      <c r="L5">
+        <v>1.111186838371904</v>
+      </c>
+      <c r="M5">
+        <v>1.122585024345414</v>
+      </c>
+      <c r="N5">
+        <v>1.115820487882205</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>1.110405962537764</v>
+      </c>
+      <c r="E6">
+        <v>1.109180603127329</v>
+      </c>
+      <c r="F6">
+        <v>1.120617945440791</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1.11450340684598</v>
+      </c>
+      <c r="L6">
+        <v>1.111436464920286</v>
+      </c>
+      <c r="M6">
+        <v>1.122849721092544</v>
+      </c>
+      <c r="N6">
+        <v>1.116086129519028</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>1.108466109162169</v>
+      </c>
+      <c r="E7">
+        <v>1.10739955549574</v>
+      </c>
+      <c r="F7">
+        <v>1.118733602000397</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1.112674031219446</v>
+      </c>
+      <c r="L7">
+        <v>1.109714784792314</v>
+      </c>
+      <c r="M7">
+        <v>1.121024264432473</v>
+      </c>
+      <c r="N7">
+        <v>1.114254155969273</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>1.100215603963015</v>
+      </c>
+      <c r="E8">
+        <v>1.099819555733026</v>
+      </c>
+      <c r="F8">
+        <v>1.110717756350479</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.104888672805597</v>
+      </c>
+      <c r="L8">
+        <v>1.102383891473975</v>
+      </c>
+      <c r="M8">
+        <v>1.113255609305224</v>
+      </c>
+      <c r="N8">
+        <v>1.106457741453483</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>1.085084158767701</v>
+      </c>
+      <c r="E9">
+        <v>1.085899049202683</v>
+      </c>
+      <c r="F9">
+        <v>1.096011396097164</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1.090592056372717</v>
+      </c>
+      <c r="L9">
+        <v>1.088907003942638</v>
+      </c>
+      <c r="M9">
+        <v>1.09898988236545</v>
+      </c>
+      <c r="N9">
+        <v>1.092140822185424</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>1.07453907150466</v>
+      </c>
+      <c r="E10">
+        <v>1.076185259749877</v>
+      </c>
+      <c r="F10">
+        <v>1.085759195548013</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.080616298922301</v>
+      </c>
+      <c r="L10">
+        <v>1.079493168696166</v>
+      </c>
+      <c r="M10">
+        <v>1.089035948625478</v>
+      </c>
+      <c r="N10">
+        <v>1.082150898015193</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1.069849940227187</v>
+      </c>
+      <c r="E11">
+        <v>1.071862827280599</v>
+      </c>
+      <c r="F11">
+        <v>1.081199563427575</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1.076177359015161</v>
+      </c>
+      <c r="L11">
+        <v>1.075301881818105</v>
+      </c>
+      <c r="M11">
+        <v>1.084606813595539</v>
+      </c>
+      <c r="N11">
+        <v>1.077705654304231</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>1.068088347204114</v>
+      </c>
+      <c r="E12">
+        <v>1.070238553207454</v>
+      </c>
+      <c r="F12">
+        <v>1.079486514193717</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.074509308700389</v>
+      </c>
+      <c r="L12">
+        <v>1.073726535510596</v>
+      </c>
+      <c r="M12">
+        <v>1.082942464571023</v>
+      </c>
+      <c r="N12">
+        <v>1.076035235166684</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1.068467135768012</v>
+      </c>
+      <c r="E13">
+        <v>1.070587834464035</v>
+      </c>
+      <c r="F13">
+        <v>1.079854869268579</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1.074868003398416</v>
+      </c>
+      <c r="L13">
+        <v>1.074065311472543</v>
+      </c>
+      <c r="M13">
+        <v>1.083300362542924</v>
+      </c>
+      <c r="N13">
+        <v>1.076394439252325</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>1.06970473939555</v>
+      </c>
+      <c r="E14">
+        <v>1.071728954022247</v>
+      </c>
+      <c r="F14">
+        <v>1.081058365980437</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.076039877637017</v>
+      </c>
+      <c r="L14">
+        <v>1.075172048419536</v>
+      </c>
+      <c r="M14">
+        <v>1.084469636920421</v>
+      </c>
+      <c r="N14">
+        <v>1.077567977686761</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>1.070464596222349</v>
+      </c>
+      <c r="E15">
+        <v>1.072429514078337</v>
+      </c>
+      <c r="F15">
+        <v>1.081797268235962</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1.07675931917973</v>
+      </c>
+      <c r="L15">
+        <v>1.075851453403173</v>
+      </c>
+      <c r="M15">
+        <v>1.085187484652284</v>
+      </c>
+      <c r="N15">
+        <v>1.078288440918986</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>1.074847568289786</v>
+      </c>
+      <c r="E16">
+        <v>1.076469570137946</v>
+      </c>
+      <c r="F16">
+        <v>1.086059157625469</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1.080908273565219</v>
+      </c>
+      <c r="L16">
+        <v>1.079768804059027</v>
+      </c>
+      <c r="M16">
+        <v>1.089327280529091</v>
+      </c>
+      <c r="N16">
+        <v>1.082443287295593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>1.077563028125215</v>
+      </c>
+      <c r="E17">
+        <v>1.078971799157516</v>
+      </c>
+      <c r="F17">
+        <v>1.088699409290753</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.083477962658547</v>
+      </c>
+      <c r="L17">
+        <v>1.082194418239993</v>
+      </c>
+      <c r="M17">
+        <v>1.091891323836591</v>
+      </c>
+      <c r="N17">
+        <v>1.085016625642182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1.07913513585487</v>
+      </c>
+      <c r="E18">
+        <v>1.080420176361242</v>
+      </c>
+      <c r="F18">
+        <v>1.090227904816553</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.084965394394463</v>
+      </c>
+      <c r="L18">
+        <v>1.083598227439819</v>
+      </c>
+      <c r="M18">
+        <v>1.093375496306919</v>
+      </c>
+      <c r="N18">
+        <v>1.086506169701774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1.079669226200716</v>
+      </c>
+      <c r="E19">
+        <v>1.080912184091875</v>
+      </c>
+      <c r="F19">
+        <v>1.090747166704751</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.085470669992424</v>
+      </c>
+      <c r="L19">
+        <v>1.084075058294809</v>
+      </c>
+      <c r="M19">
+        <v>1.09387966614468</v>
+      </c>
+      <c r="N19">
+        <v>1.087012162849039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>1.077272912261524</v>
+      </c>
+      <c r="E20">
+        <v>1.078704493712074</v>
+      </c>
+      <c r="F20">
+        <v>1.088417335853238</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.083203450040397</v>
+      </c>
+      <c r="L20">
+        <v>1.081935320243991</v>
+      </c>
+      <c r="M20">
+        <v>1.091617413417705</v>
+      </c>
+      <c r="N20">
+        <v>1.084741723184626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>1.069340855148091</v>
+      </c>
+      <c r="E21">
+        <v>1.071393450439004</v>
+      </c>
+      <c r="F21">
+        <v>1.080704512829549</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1.07569533170034</v>
+      </c>
+      <c r="L21">
+        <v>1.074846663530099</v>
+      </c>
+      <c r="M21">
+        <v>1.084125854889535</v>
+      </c>
+      <c r="N21">
+        <v>1.077222942455334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>1.064238104427361</v>
+      </c>
+      <c r="E22">
+        <v>1.066687636767774</v>
+      </c>
+      <c r="F22">
+        <v>1.075742183173765</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1.070862693569656</v>
+      </c>
+      <c r="L22">
+        <v>1.070281927636754</v>
+      </c>
+      <c r="M22">
+        <v>1.079303975188543</v>
+      </c>
+      <c r="N22">
+        <v>1.072383441424192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>1.066954605760934</v>
+      </c>
+      <c r="E23">
+        <v>1.069193064959826</v>
+      </c>
+      <c r="F23">
+        <v>1.078383985849579</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1.073435643908786</v>
+      </c>
+      <c r="L23">
+        <v>1.072712440134124</v>
+      </c>
+      <c r="M23">
+        <v>1.081871187273237</v>
+      </c>
+      <c r="N23">
+        <v>1.074960045647926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>1.077404039418298</v>
+      </c>
+      <c r="E24">
+        <v>1.078825311841549</v>
+      </c>
+      <c r="F24">
+        <v>1.088544828197312</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1.083327525686051</v>
+      </c>
+      <c r="L24">
+        <v>1.082052429410863</v>
+      </c>
+      <c r="M24">
+        <v>1.091741216851347</v>
+      </c>
+      <c r="N24">
+        <v>1.084865975031929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.089072050235846</v>
+      </c>
+      <c r="E25">
+        <v>1.089569982453751</v>
+      </c>
+      <c r="F25">
+        <v>1.099887852526807</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1.094362072983761</v>
+      </c>
+      <c r="L25">
+        <v>1.092462592892236</v>
+      </c>
+      <c r="M25">
+        <v>1.102751716153855</v>
+      </c>
+      <c r="N25">
+        <v>1.095916192652482</v>
       </c>
     </row>
   </sheetData>
